--- a/OV7670/OV7670_control_registers.xlsx
+++ b/OV7670/OV7670_control_registers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\github\2024-CapStone\OV7670\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365pknu-my.sharepoint.com/personal/201912439_office_pknu_ac_kr/Documents/바탕 화면/github/2024-CapStone/OV7670/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA95F94A-21A8-4F43-A1FA-88A29DA869A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{DA95F94A-21A8-4F43-A1FA-88A29DA869A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8312ECD-4E34-4F8C-B723-B785868C058A}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="6216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="106">
   <si>
     <t>OV7670 control registers</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -340,6 +340,114 @@
   </si>
   <si>
     <t>COM8(13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FASTENC | AECSTEP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b'11000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[7] : enable AGC/AEC algorithm, [6] : AEC umlimited step size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD50ST(9D), BD60ST(9E)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gain(00)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGC[7:0] AGC = automatic gain control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vref(03)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AECH(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AEC[9:2], AECHH( AEC[15:10] ), COM1(AEC[1:0])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM4(0D)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b'01000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[7:6] : reserved, [5:4] : COM17[7:6]과 동일 값, window size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM17(42)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM9(14)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b'00011000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[7] : reserved, [6:4] AGC multiplier, [3:1] : reserved, [0] freeze AGC/AEC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD50MAX(A5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b'00000101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50Hz banding step limit(default 0F)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD60MAX(AB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b'00000111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60Hz Banding step limit(default 0F)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -675,16 +783,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="26.296875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="17.09765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.09765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.69921875" style="1" customWidth="1"/>
     <col min="5" max="5" width="81.69921875" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.796875" style="1"/>
@@ -1029,6 +1138,108 @@
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>78</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
